--- a/02.我方交付/集成平台开发交付计划.xlsx
+++ b/02.我方交付/集成平台开发交付计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\金麦斯特集成平台\03.项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\金麦斯特集成平台\02.我方交付\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,281 +19,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>项目</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>术数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>1.主数据-需求规格说明书-V1.0.docx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>交付资料</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>1.主数据-概要设计说明书-V1.0.doc</t>
   </si>
   <si>
-    <t>WBS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>交付分类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>项目</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>需求文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>设计文档</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>负责人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>姚会新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.4.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>杨建波</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>预估工时（人/日）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>表结构设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>计划开始时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>Java源代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>计划完成时间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>完成状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>进行中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>待甲方抽出需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>交付分类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>需求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.1.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>运维</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>新需求对应</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>用户手册</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.2.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>运维规范</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.1.2.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>1.主数据-维护管理规范V1.0.docx</t>
   </si>
   <si>
-    <t>1.2.1.1.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>开始时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>完成时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>EMPI</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>王盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.2.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>需要对应SQL Server数据库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.3.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>需要将Oracle转变成SQL Server数据库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.2.3.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.3.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.3.4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.9.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2.1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成平台开发交付计划</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>1.主数据管理-操作手册-V1.0.doc</t>
   </si>
 </sst>
 </file>
@@ -315,12 +172,20 @@
     <numFmt numFmtId="185" formatCode="#,##0.00000;[Red]\-#,##0.00000"/>
     <numFmt numFmtId="186" formatCode="###0.0000_);[Red]\(###0.0000\)"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,14 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -767,6 +624,29 @@
       <color indexed="62"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="26">
@@ -920,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1112,19 +992,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1230,9 +1097,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="222">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,13 +1275,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
@@ -1313,10 +1343,10 @@
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0"/>
@@ -1505,7 +1535,7 @@
     </xf>
     <xf numFmtId="176" fontId="57" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1514,10 +1544,10 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0"/>
@@ -1629,33 +1659,94 @@
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="19">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="18">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="46" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="51" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="52" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="38" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="28">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="4" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="5" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1665,91 +1756,160 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="65" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="67" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="32">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="46" fillId="4" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="51" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="52" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="38" fillId="5" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="31" fillId="5" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="65" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="187" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="187" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="222">
     <cellStyle name="??" xfId="137"/>
     <cellStyle name="20% - アクセント 1" xfId="138"/>
     <cellStyle name="20% - アクセント 2" xfId="139"/>
@@ -1797,6 +1957,8 @@
     <cellStyle name="Header1" xfId="15"/>
     <cellStyle name="Header2" xfId="16"/>
     <cellStyle name="Header2 2" xfId="172"/>
+    <cellStyle name="Header2 2 2" xfId="207"/>
+    <cellStyle name="Header2 3" xfId="194"/>
     <cellStyle name="Input [yellow]" xfId="17"/>
     <cellStyle name="Migliaia (0)_Selezione Ascom TCS" xfId="18"/>
     <cellStyle name="Normal - Style1" xfId="19"/>
@@ -1838,9 +2000,13 @@
     <cellStyle name="ﾇ･ﾁﾘ_ｰﾇﾃ狒｡" xfId="38"/>
     <cellStyle name="メモ" xfId="165"/>
     <cellStyle name="メモ 2" xfId="184"/>
+    <cellStyle name="メモ 2 2" xfId="219"/>
+    <cellStyle name="メモ 3" xfId="205"/>
     <cellStyle name="リンク セル" xfId="166"/>
     <cellStyle name="百分比 2" xfId="132"/>
     <cellStyle name="百分比 2 2" xfId="183"/>
+    <cellStyle name="百分比 2 2 2" xfId="218"/>
+    <cellStyle name="百分比 2 3" xfId="204"/>
     <cellStyle name="百分比 3" xfId="136"/>
     <cellStyle name="百分比 4" xfId="130"/>
     <cellStyle name="标题 1 2" xfId="76"/>
@@ -1864,10 +2030,16 @@
     <cellStyle name="常规 13" xfId="92"/>
     <cellStyle name="常规 14" xfId="46"/>
     <cellStyle name="常规 14 2" xfId="174"/>
+    <cellStyle name="常规 14 2 2" xfId="209"/>
+    <cellStyle name="常规 14 3" xfId="196"/>
     <cellStyle name="常规 15" xfId="128"/>
     <cellStyle name="常规 15 2" xfId="180"/>
+    <cellStyle name="常规 15 2 2" xfId="215"/>
+    <cellStyle name="常规 15 3" xfId="201"/>
     <cellStyle name="常规 16" xfId="131"/>
     <cellStyle name="常规 16 2" xfId="182"/>
+    <cellStyle name="常规 16 2 2" xfId="217"/>
+    <cellStyle name="常规 16 3" xfId="203"/>
     <cellStyle name="常规 17" xfId="133"/>
     <cellStyle name="常规 18" xfId="7"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -1875,24 +2047,32 @@
     <cellStyle name="常规 2 2 2" xfId="5"/>
     <cellStyle name="常规 2 2 2 2" xfId="171"/>
     <cellStyle name="常规 2 2 2 3" xfId="94"/>
+    <cellStyle name="常规 2 2 2 4" xfId="192"/>
     <cellStyle name="常规 2 2 3" xfId="95"/>
     <cellStyle name="常规 2 2 3 2" xfId="96"/>
     <cellStyle name="常规 2 2 3 3" xfId="97"/>
     <cellStyle name="常规 2 2 3 3 2" xfId="98"/>
     <cellStyle name="常规 2 2 4" xfId="93"/>
+    <cellStyle name="常规 2 2 5" xfId="189"/>
     <cellStyle name="常规 2 3" xfId="4"/>
     <cellStyle name="常规 2 3 2" xfId="99"/>
+    <cellStyle name="常规 2 3 3" xfId="191"/>
     <cellStyle name="常规 2 4" xfId="126"/>
     <cellStyle name="常规 2 5" xfId="127"/>
     <cellStyle name="常规 2 6" xfId="49"/>
     <cellStyle name="常规 2 7" xfId="135"/>
     <cellStyle name="常规 2 8" xfId="39"/>
+    <cellStyle name="常规 2 9" xfId="188"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 3 2" xfId="6"/>
     <cellStyle name="常规 3 2 2" xfId="100"/>
+    <cellStyle name="常规 3 2 3" xfId="193"/>
     <cellStyle name="常规 3 3" xfId="47"/>
     <cellStyle name="常规 3 4" xfId="45"/>
+    <cellStyle name="常规 3 4 2" xfId="195"/>
     <cellStyle name="常规 3 5" xfId="173"/>
+    <cellStyle name="常规 3 5 2" xfId="208"/>
+    <cellStyle name="常规 3 6" xfId="190"/>
     <cellStyle name="常规 4" xfId="44"/>
     <cellStyle name="常规 4 2" xfId="101"/>
     <cellStyle name="常规 5" xfId="102"/>
@@ -1902,23 +2082,31 @@
     <cellStyle name="常规 7 2" xfId="170"/>
     <cellStyle name="常规 8" xfId="105"/>
     <cellStyle name="常规 9" xfId="106"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="107"/>
     <cellStyle name="出力" xfId="167"/>
     <cellStyle name="出力 2" xfId="185"/>
+    <cellStyle name="出力 2 2" xfId="220"/>
     <cellStyle name="工数集計" xfId="40"/>
     <cellStyle name="好 2" xfId="108"/>
     <cellStyle name="汇总 2" xfId="109"/>
     <cellStyle name="汇总 2 2" xfId="175"/>
+    <cellStyle name="汇总 2 2 2" xfId="210"/>
+    <cellStyle name="汇总 2 3" xfId="197"/>
     <cellStyle name="基本計画検討書（PJ）" xfId="41"/>
     <cellStyle name="计算 2" xfId="110"/>
     <cellStyle name="计算 2 2" xfId="176"/>
+    <cellStyle name="计算 2 2 2" xfId="211"/>
+    <cellStyle name="计算 2 3" xfId="198"/>
     <cellStyle name="检查单元格 2" xfId="111"/>
     <cellStyle name="解释性文本 2" xfId="112"/>
     <cellStyle name="警告文" xfId="168"/>
     <cellStyle name="警告文本 2" xfId="113"/>
     <cellStyle name="链接单元格 2" xfId="114"/>
     <cellStyle name="千位分隔 2" xfId="129"/>
+    <cellStyle name="千位分隔 2 2" xfId="202"/>
     <cellStyle name="千位分隔 3" xfId="181"/>
+    <cellStyle name="千位分隔 3 2" xfId="216"/>
     <cellStyle name="强调文字颜色 1 2" xfId="115"/>
     <cellStyle name="强调文字颜色 2 2" xfId="116"/>
     <cellStyle name="强调文字颜色 3 2" xfId="117"/>
@@ -1927,16 +2115,23 @@
     <cellStyle name="强调文字颜色 6 2" xfId="120"/>
     <cellStyle name="入力" xfId="169"/>
     <cellStyle name="入力 2" xfId="186"/>
+    <cellStyle name="入力 2 2" xfId="221"/>
+    <cellStyle name="入力 3" xfId="206"/>
     <cellStyle name="适中 2" xfId="121"/>
     <cellStyle name="输出 2" xfId="122"/>
     <cellStyle name="输出 2 2" xfId="177"/>
+    <cellStyle name="输出 2 2 2" xfId="212"/>
     <cellStyle name="输入 2" xfId="123"/>
     <cellStyle name="输入 2 2" xfId="178"/>
+    <cellStyle name="输入 2 2 2" xfId="213"/>
+    <cellStyle name="输入 2 3" xfId="199"/>
     <cellStyle name="未定義" xfId="42"/>
     <cellStyle name="要件定義書(IBM)" xfId="124"/>
     <cellStyle name="原価計算" xfId="43"/>
     <cellStyle name="注释 2" xfId="125"/>
     <cellStyle name="注释 2 2" xfId="179"/>
+    <cellStyle name="注释 2 2 2" xfId="214"/>
+    <cellStyle name="注释 2 3" xfId="200"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2238,789 +2433,906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="11" customWidth="1"/>
+    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="9" t="s">
+      <c r="D3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="27">
+        <v>42786</v>
+      </c>
+      <c r="H4" s="33">
+        <v>42793</v>
+      </c>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="18" t="s">
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="27">
+        <v>42786</v>
+      </c>
+      <c r="H5" s="33">
+        <v>42793</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="27">
+        <v>42786</v>
+      </c>
+      <c r="H6" s="33">
+        <v>42793</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="18" t="s">
+      <c r="C9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="18" t="s">
+      <c r="C10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="18" t="s">
+      <c r="C12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="18" t="s">
+      <c r="C14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="24"/>
-      <c r="B26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="24"/>
-      <c r="B31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="24"/>
-      <c r="B32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="24"/>
-      <c r="B40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="24"/>
-      <c r="B41" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="24"/>
-      <c r="B42" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="24"/>
-      <c r="B43" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="24"/>
-      <c r="B55" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="24"/>
-      <c r="B56" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="24"/>
-      <c r="B57" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="24"/>
-      <c r="B58" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="24"/>
-      <c r="B59" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="24"/>
-      <c r="B60" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="24"/>
-      <c r="B61" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="25"/>
-      <c r="B62" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="3"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="A31" s="7"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" s="7"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="A55" s="7"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75">
+      <c r="A56" s="7"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75">
+      <c r="A57" s="7"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75">
+      <c r="A58" s="7"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75">
+      <c r="A59" s="7"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75">
+      <c r="A60" s="7"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75">
+      <c r="A61" s="7"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75">
+      <c r="A62" s="9"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="5:6">
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="5:6">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="5:6">
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A10"/>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/02.我方交付/集成平台开发交付计划.xlsx
+++ b/02.我方交付/集成平台开发交付计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>备注</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>1.主数据管理-操作手册-V1.0.doc</t>
+  </si>
+  <si>
+    <t>郑东洋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未交付</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2436,7 +2448,10 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2445,11 +2460,10 @@
     <col min="2" max="2" width="10.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="12" style="11" customWidth="1"/>
     <col min="4" max="4" width="42" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="13" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2586,7 +2600,7 @@
       <c r="E6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="27">
@@ -2612,10 +2626,14 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="33">
+        <v>42791</v>
+      </c>
+      <c r="H7" s="33">
+        <v>42791</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
@@ -2631,10 +2649,14 @@
         <v>10</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="G8" s="33">
+        <v>42791</v>
+      </c>
+      <c r="H8" s="33">
+        <v>42791</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -2648,8 +2670,12 @@
         <v>7</v>
       </c>
       <c r="D9" s="31"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="5"/>
@@ -2663,8 +2689,12 @@
         <v>8</v>
       </c>
       <c r="D10" s="31"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="29"/>
+      <c r="E10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
@@ -2676,8 +2706,12 @@
         <v>12</v>
       </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
       <c r="I11" s="30"/>
@@ -2691,8 +2725,12 @@
         <v>13</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
       <c r="I12" s="30"/>
@@ -2704,8 +2742,12 @@
         <v>23</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="30"/>
@@ -2719,8 +2761,12 @@
         <v>25</v>
       </c>
       <c r="D14" s="31"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
@@ -2732,8 +2778,12 @@
         <v>24</v>
       </c>
       <c r="D15" s="31"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
